--- a/results_128Byte_Mega.xlsx
+++ b/results_128Byte_Mega.xlsx
@@ -755,6 +755,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.6097697695266883E-2"/>
+                  <c:y val="3.644807964895861E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$L$67:$L$84</c:f>
@@ -913,6 +964,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2742164939482796E-2"/>
+                  <c:y val="-8.6817636167572081E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="0070C0"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$M$1:$M$22</c:f>
@@ -1095,6 +1197,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.3849970758281272E-2"/>
+                  <c:y val="1.37542303336114E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$N$23:$N$44</c:f>
@@ -1277,6 +1430,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.8190757188504865E-2"/>
+                  <c:y val="5.7258947282752444E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$N$45:$N$66</c:f>
@@ -1437,11 +1645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405495816"/>
-        <c:axId val="405498952"/>
+        <c:axId val="344132008"/>
+        <c:axId val="344133968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405495816"/>
+        <c:axId val="344132008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1563,12 +1771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405498952"/>
+        <c:crossAx val="344133968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405498952"/>
+        <c:axId val="344133968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1689,7 +1897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405495816"/>
+        <c:crossAx val="344132008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1707,10 +1915,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.78764692192967023"/>
-          <c:y val="0.4590865870448364"/>
-          <c:w val="9.6232492912171633E-2"/>
-          <c:h val="0.11800253650464233"/>
+          <c:x val="0.1328024089510014"/>
+          <c:y val="0.14039580323777359"/>
+          <c:w val="0.12604488047320994"/>
+          <c:h val="0.27304129619456485"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1908,6 +2116,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3313602761875278E-2"/>
+                  <c:y val="5.9254101689824529E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$L$151:$L$172</c:f>
@@ -2090,6 +2349,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9019987574799097E-2"/>
+                  <c:y val="-1.478048663943015E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="0070C0"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="0070C0"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$M$85:$M$106</c:f>
@@ -2272,6 +2582,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9019987574799097E-2"/>
+                  <c:y val="1.7292799388372943E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$N$107:$N$128</c:f>
@@ -2454,6 +2815,61 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.6403693562976948E-2"/>
+                  <c:y val="6.1923963015676355E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>results_128Byte_Mega!$N$129:$N$150</c:f>
@@ -2614,11 +3030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405487584"/>
-        <c:axId val="405493072"/>
+        <c:axId val="344133576"/>
+        <c:axId val="344134360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405487584"/>
+        <c:axId val="344133576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2740,12 +3156,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405493072"/>
+        <c:crossAx val="344134360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405493072"/>
+        <c:axId val="344134360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2866,7 +3282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405487584"/>
+        <c:crossAx val="344133576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2884,10 +3300,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80650245341256299"/>
-          <c:y val="0.29645971244744851"/>
-          <c:w val="9.4069259239686759E-2"/>
-          <c:h val="0.13906527170829308"/>
+          <c:x val="0.13623775439789373"/>
+          <c:y val="7.7994190908191083E-2"/>
+          <c:w val="0.123881681327999"/>
+          <c:h val="0.27257200782281926"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4699,7 +5115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N7"/>
     </sheetView>
   </sheetViews>
